--- a/medicine/Enfance/Au_cœur_du_blizzard/Au_cœur_du_blizzard.xlsx
+++ b/medicine/Enfance/Au_cœur_du_blizzard/Au_cœur_du_blizzard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au_c%C5%93ur_du_blizzard</t>
+          <t>Au_cœur_du_blizzard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au cœur du blizzard (titre original : Otter tre to kaller), est un roman pour adolescents de l'écrivain norvégien Leif Hamre, paru en 1957. Une version anglaise est publiée deux ans plus tard et c'est de cette dernière qu'est issue la traduction française qui paraît en 1970. Une suite a été écrite en 1958 sous le titre Blå 2; hopp ut (inédit en France).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au_c%C5%93ur_du_blizzard</t>
+          <t>Au_cœur_du_blizzard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lieutenant Geir Grand est pilote dans la force aérienne royale norvégienne, à la base de Bodø. Lorsqu'il est réveillé à l'aube pour assurer un vol à bord d'un Otter vers Kirkenes, il n'est pas enchanté : les prévisions météorologiques sont mauvaises au-dessus de la Laponie et on lui impose comme copilote le sergent Peter Hovden dont il redoute l'inexpérience. Au mess, avant le décollage, ils rencontrent Svein Rowan, pilote d'hélicoptère et ami de Geir. Après une escale à Bardufoss, alors que l'avion survole les landes du Finnmark, le moteur donne des signes de faiblesse puis tombe en panne. Les deux pilotes doivent sauter en parachute. Peter se casse une jambe à l'atterrissage et son compagnon, indemne, met du temps à le retrouver.
 Ils construisent un abri de fortune pour s'abriter du blizzard qui menace, allumant un feu et se nourrissant de leurs rations alimentaires. Peter ne pouvant se déplacer, ils n'ont d'autre ressource que d'attendre sur place l'arrivée des secours. Geir décide cependant de partir seul à la recherche de l'épave de l'avion qu'il retrouve à quelques kilomètres de là. Alors qu'il revient vers le camp, chargé de tout le matériel nécessaire pour améliorer leur installation, le blizzard se lève et Geir erre dans la lande toute une nuit avant d'être guidé vers le camp par Peter qui n'a cessé de l'appeler avec son sifflet. Les deux hommes sont épuisés, mais Geir tient à parfaire leur installation dans une cabane en branchages isolée par des blocs de neige.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Au_c%C5%93ur_du_blizzard</t>
+          <t>Au_cœur_du_blizzard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au coeur du blizzard est une robinsonnade de « fiction réaliste » qui met en scène deux personnes confrontées à un milieu hostile : l'argument du roman est vraisemblable, tout comme les moyens utilisés par les deux hommes pour survivre. L'auteur se livre également à un parallèle entre la situation particulière des deux aviateurs et l'idéal du nationalisme norvégien : la capacité à survivre malgré l'hostilité du milieu est, selon Hamre, ce qui caractérise le Norvégien[1] et, plus généralement, le Scandinave[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au coeur du blizzard est une robinsonnade de « fiction réaliste » qui met en scène deux personnes confrontées à un milieu hostile : l'argument du roman est vraisemblable, tout comme les moyens utilisés par les deux hommes pour survivre. L'auteur se livre également à un parallèle entre la situation particulière des deux aviateurs et l'idéal du nationalisme norvégien : la capacité à survivre malgré l'hostilité du milieu est, selon Hamre, ce qui caractérise le Norvégien et, plus généralement, le Scandinave.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Au_c%C5%93ur_du_blizzard</t>
+          <t>Au_cœur_du_blizzard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Édition française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au cœur du blizzard  (trad. Jean Courbeyre, depuis la version anglaise Leap into danger), Robert Laffont, coll. « Plein Vent » (no 63), 1970, 237 p. (ISBN 978-2-221-02569-7).</t>
         </is>
